--- a/biology/Zoologie/Bradypterus/Bradypterus.xlsx
+++ b/biology/Zoologie/Bradypterus/Bradypterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bradypterus est un genre de passereaux de la famille des Locustellidae. Il regroupe douze espèces de bouscarles.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre se trouve à l'état naturel en Afrique subsaharienne[2],[3],[4],[5],[6],[7],[8],[9],[10],[11],[12],[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre se trouve à l'état naturel en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste alphabétique des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence du Congrès ornithologique international  (version 8.2, 2018) :
 Bradypterus baboecala (Vieillot, 1817) — Bouscarle caqueteuse, Mégalure caqueteuse
 Bradypterus baboecala abyssinicus (Blundell &amp; Lovat, 1899)
 Bradypterus baboecala baboecala (Vieillot, 1817)
@@ -610,9 +626,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2018, l'espèce Bradypterus alfredi a été rattachée au genre Locustella par la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1]. En revanche Bradypterus seebohmi a été déplacée depuis l'ancien genre Amphilais.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, l'espèce Bradypterus alfredi a été rattachée au genre Locustella par la classification de référence du Congrès ornithologique international  (version 8.2, 2018). En revanche Bradypterus seebohmi a été déplacée depuis l'ancien genre Amphilais.
 </t>
         </is>
       </c>
@@ -641,7 +659,9 @@
           <t>Référence taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
